--- a/biology/Médecine/Parturition/Parturition.xlsx
+++ b/biology/Médecine/Parturition/Parturition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La parturition, appelée aussi  mise-bas (aussi écrit mise bas), est une des étapes de la reproduction vivipare, consistant en l'action de mettre au monde la progéniture. Elle correspond à l'accouchement chez les femmes, au poulinage chez les chevaux, au vêlage chez les Bovidés et à l'agnelage chez les moutons[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La parturition, appelée aussi  mise-bas (aussi écrit mise bas), est une des étapes de la reproduction vivipare, consistant en l'action de mettre au monde la progéniture. Elle correspond à l'accouchement chez les femmes, au poulinage chez les chevaux, au vêlage chez les Bovidés et à l'agnelage chez les moutons.
 Concrètement, il s'agit de l'expulsion du contenu utérin (liquide amniotique, progéniture et placenta) au terme d'une gestation dont la durée varie selon les espèces et fonction des individus de l'espèce considérée.
-Ce mot provient du latin parere signifiant « accoucher », « enfanter », « mettre au monde » ou « mettre bas » pour un animal, qui a aussi donné le mot part en ancien français, toujours employé comme terme juridique, signifiant « enfant qui vient de naître »[2].
+Ce mot provient du latin parere signifiant « accoucher », « enfanter », « mettre au monde » ou « mettre bas » pour un animal, qui a aussi donné le mot part en ancien français, toujours employé comme terme juridique, signifiant « enfant qui vient de naître ».
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Champ lexical lié à la parturition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'adjectif parturiente désigne une femelle (ou, chez les syngnathidés : le mâle) en cours de parturition.
 La parturition est éventuellement désignée sous divers termes fonction de certaines espèces :
